--- a/lowe/edd/data/GLENNHWS.xlsx
+++ b/lowe/edd/data/GLENNHWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1328,14 +1328,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH45"/>
+  <dimension ref="A1:JI45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1345,12 +1345,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1360,14 +1360,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1375,12 +1375,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1393,7 +1393,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2195,11 +2195,14 @@
       <c r="JG8" s="8">
         <v>44378</v>
       </c>
-      <c r="JH8" s="9">
+      <c r="JH8" s="8">
         <v>44409</v>
       </c>
+      <c r="JI8" s="9">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3000,10 +3003,13 @@
         <v>13020</v>
       </c>
       <c r="JH9" s="11">
-        <v>12730</v>
+        <v>12750</v>
+      </c>
+      <c r="JI9" s="11">
+        <v>12870</v>
       </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3804,10 +3810,13 @@
         <v>12110</v>
       </c>
       <c r="JH10" s="11">
-        <v>11850</v>
+        <v>11870</v>
+      </c>
+      <c r="JI10" s="11">
+        <v>12140</v>
       </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4610,8 +4619,11 @@
       <c r="JH11" s="11">
         <v>880</v>
       </c>
+      <c r="JI11" s="11">
+        <v>730</v>
+      </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5414,8 +5426,11 @@
       <c r="JH12" s="12">
         <v>6.9000000000000006E-2</v>
       </c>
+      <c r="JI12" s="12">
+        <v>5.7000000000000002E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6216,10 +6231,13 @@
         <v>9780</v>
       </c>
       <c r="JH13" s="11">
-        <v>9560</v>
+        <v>9570</v>
+      </c>
+      <c r="JI13" s="11">
+        <v>9750</v>
       </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7022,8 +7040,11 @@
       <c r="JH14" s="11">
         <v>2390</v>
       </c>
+      <c r="JI14" s="11">
+        <v>2390</v>
+      </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7824,10 +7845,13 @@
         <v>7140</v>
       </c>
       <c r="JH15" s="11">
-        <v>7170</v>
+        <v>7180</v>
+      </c>
+      <c r="JI15" s="11">
+        <v>7360</v>
       </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8628,10 +8652,13 @@
         <v>5200</v>
       </c>
       <c r="JH16" s="11">
-        <v>5140</v>
+        <v>5150</v>
+      </c>
+      <c r="JI16" s="11">
+        <v>5220</v>
       </c>
     </row>
-    <row r="17" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9432,10 +9459,13 @@
         <v>1190</v>
       </c>
       <c r="JH17" s="11">
-        <v>1160</v>
+        <v>1170</v>
+      </c>
+      <c r="JI17" s="11">
+        <v>1220</v>
       </c>
     </row>
-    <row r="18" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10238,8 +10268,11 @@
       <c r="JH18" s="11">
         <v>370</v>
       </c>
+      <c r="JI18" s="11">
+        <v>370</v>
+      </c>
     </row>
-    <row r="19" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -11040,10 +11073,13 @@
         <v>790</v>
       </c>
       <c r="JH19" s="11">
-        <v>790</v>
+        <v>800</v>
+      </c>
+      <c r="JI19" s="11">
+        <v>860</v>
       </c>
     </row>
-    <row r="20" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -11844,10 +11880,13 @@
         <v>520</v>
       </c>
       <c r="JH20" s="11">
-        <v>510</v>
+        <v>520</v>
+      </c>
+      <c r="JI20" s="11">
+        <v>530</v>
       </c>
     </row>
-    <row r="21" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -12650,8 +12689,11 @@
       <c r="JH21" s="11">
         <v>280</v>
       </c>
+      <c r="JI21" s="11">
+        <v>320</v>
+      </c>
     </row>
-    <row r="22" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -13454,8 +13496,11 @@
       <c r="JH22" s="11">
         <v>6010</v>
       </c>
+      <c r="JI22" s="11">
+        <v>6140</v>
+      </c>
     </row>
-    <row r="23" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -14258,8 +14303,11 @@
       <c r="JH23" s="11">
         <v>3980</v>
       </c>
+      <c r="JI23" s="11">
+        <v>4000</v>
+      </c>
     </row>
-    <row r="24" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -15062,8 +15110,11 @@
       <c r="JH24" s="11">
         <v>1770</v>
       </c>
+      <c r="JI24" s="11">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="25" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -15866,8 +15917,11 @@
       <c r="JH25" s="11">
         <v>340</v>
       </c>
+      <c r="JI25" s="11">
+        <v>330</v>
+      </c>
     </row>
-    <row r="26" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -16670,8 +16724,11 @@
       <c r="JH26" s="11">
         <v>970</v>
       </c>
+      <c r="JI26" s="11">
+        <v>980</v>
+      </c>
     </row>
-    <row r="27" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -17474,8 +17531,11 @@
       <c r="JH27" s="11">
         <v>460</v>
       </c>
+      <c r="JI27" s="11">
+        <v>500</v>
+      </c>
     </row>
-    <row r="28" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -18278,8 +18338,11 @@
       <c r="JH28" s="11">
         <v>150</v>
       </c>
+      <c r="JI28" s="11">
+        <v>150</v>
+      </c>
     </row>
-    <row r="29" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -19082,8 +19145,11 @@
       <c r="JH29" s="11">
         <v>270</v>
       </c>
+      <c r="JI29" s="11">
+        <v>270</v>
+      </c>
     </row>
-    <row r="30" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -19886,8 +19952,11 @@
       <c r="JH30" s="11">
         <v>880</v>
       </c>
+      <c r="JI30" s="11">
+        <v>890</v>
+      </c>
     </row>
-    <row r="31" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -20690,8 +20759,11 @@
       <c r="JH31" s="11">
         <v>770</v>
       </c>
+      <c r="JI31" s="11">
+        <v>760</v>
+      </c>
     </row>
-    <row r="32" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -21494,8 +21566,11 @@
       <c r="JH32" s="11">
         <v>2030</v>
       </c>
+      <c r="JI32" s="11">
+        <v>2140</v>
+      </c>
     </row>
-    <row r="33" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -22298,8 +22373,11 @@
       <c r="JH33" s="11">
         <v>180</v>
       </c>
+      <c r="JI33" s="11">
+        <v>180</v>
+      </c>
     </row>
-    <row r="34" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -23102,8 +23180,11 @@
       <c r="JH34" s="11">
         <v>1850</v>
       </c>
+      <c r="JI34" s="11">
+        <v>1960</v>
+      </c>
     </row>
-    <row r="35" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -23906,8 +23987,11 @@
       <c r="JH35" s="11">
         <v>70</v>
       </c>
+      <c r="JI35" s="11">
+        <v>70</v>
+      </c>
     </row>
-    <row r="36" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -24710,8 +24794,11 @@
       <c r="JH36" s="11">
         <v>1780</v>
       </c>
+      <c r="JI36" s="11">
+        <v>1890</v>
+      </c>
     </row>
-    <row r="38" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>95</v>
       </c>
@@ -24724,7 +24811,7 @@
       <c r="H38" s="17"/>
       <c r="I38" s="16"/>
     </row>
-    <row r="39" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>15</v>
       </c>
@@ -24737,7 +24824,7 @@
       <c r="H39" s="14"/>
       <c r="I39" s="18"/>
     </row>
-    <row r="40" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>96</v>
       </c>
@@ -24750,7 +24837,7 @@
       <c r="H40" s="14"/>
       <c r="I40" s="18"/>
     </row>
-    <row r="41" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>97</v>
       </c>
@@ -24763,7 +24850,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>98</v>
       </c>
@@ -24776,7 +24863,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="18"/>
     </row>
-    <row r="43" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>99</v>
       </c>
@@ -24789,7 +24876,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="18"/>
     </row>
-    <row r="44" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>100</v>
       </c>
@@ -24802,7 +24889,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
         <v>101</v>
       </c>

--- a/lowe/edd/data/GLENNHWS.xlsx
+++ b/lowe/edd/data/GLENNHWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1328,7 +1328,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI45"/>
+  <dimension ref="A1:JJ45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1345,12 +1345,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1360,14 +1360,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1375,12 +1375,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1393,7 +1393,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2198,11 +2198,14 @@
       <c r="JH8" s="8">
         <v>44409</v>
       </c>
-      <c r="JI8" s="9">
+      <c r="JI8" s="8">
         <v>44440</v>
       </c>
+      <c r="JJ8" s="9">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3006,10 +3009,13 @@
         <v>12750</v>
       </c>
       <c r="JI9" s="11">
-        <v>12870</v>
+        <v>12860</v>
+      </c>
+      <c r="JJ9" s="11">
+        <v>12930</v>
       </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3815,8 +3821,11 @@
       <c r="JI10" s="11">
         <v>12140</v>
       </c>
+      <c r="JJ10" s="11">
+        <v>12230</v>
+      </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4620,10 +4629,13 @@
         <v>880</v>
       </c>
       <c r="JI11" s="11">
-        <v>730</v>
+        <v>720</v>
+      </c>
+      <c r="JJ11" s="11">
+        <v>700</v>
       </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5427,10 +5439,13 @@
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="JI12" s="12">
-        <v>5.7000000000000002E-2</v>
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="JJ12" s="12">
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6236,8 +6251,11 @@
       <c r="JI13" s="11">
         <v>9750</v>
       </c>
+      <c r="JJ13" s="11">
+        <v>9850</v>
+      </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7043,8 +7061,11 @@
       <c r="JI14" s="11">
         <v>2390</v>
       </c>
+      <c r="JJ14" s="11">
+        <v>2470</v>
+      </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7850,8 +7871,11 @@
       <c r="JI15" s="11">
         <v>7360</v>
       </c>
+      <c r="JJ15" s="11">
+        <v>7380</v>
+      </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8657,8 +8681,11 @@
       <c r="JI16" s="11">
         <v>5220</v>
       </c>
+      <c r="JJ16" s="11">
+        <v>5230</v>
+      </c>
     </row>
-    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9464,8 +9491,11 @@
       <c r="JI17" s="11">
         <v>1220</v>
       </c>
+      <c r="JJ17" s="11">
+        <v>1220</v>
+      </c>
     </row>
-    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10271,8 +10301,11 @@
       <c r="JI18" s="11">
         <v>370</v>
       </c>
+      <c r="JJ18" s="11">
+        <v>370</v>
+      </c>
     </row>
-    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -11078,8 +11111,11 @@
       <c r="JI19" s="11">
         <v>860</v>
       </c>
+      <c r="JJ19" s="11">
+        <v>860</v>
+      </c>
     </row>
-    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -11885,8 +11921,11 @@
       <c r="JI20" s="11">
         <v>530</v>
       </c>
+      <c r="JJ20" s="11">
+        <v>550</v>
+      </c>
     </row>
-    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -12692,8 +12731,11 @@
       <c r="JI21" s="11">
         <v>320</v>
       </c>
+      <c r="JJ21" s="11">
+        <v>310</v>
+      </c>
     </row>
-    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -13499,8 +13541,11 @@
       <c r="JI22" s="11">
         <v>6140</v>
       </c>
+      <c r="JJ22" s="11">
+        <v>6160</v>
+      </c>
     </row>
-    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -14306,8 +14351,11 @@
       <c r="JI23" s="11">
         <v>4000</v>
       </c>
+      <c r="JJ23" s="11">
+        <v>4010</v>
+      </c>
     </row>
-    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -15113,8 +15161,11 @@
       <c r="JI24" s="11">
         <v>1800</v>
       </c>
+      <c r="JJ24" s="11">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -15920,8 +15971,11 @@
       <c r="JI25" s="11">
         <v>330</v>
       </c>
+      <c r="JJ25" s="11">
+        <v>310</v>
+      </c>
     </row>
-    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -16727,8 +16781,11 @@
       <c r="JI26" s="11">
         <v>980</v>
       </c>
+      <c r="JJ26" s="11">
+        <v>970</v>
+      </c>
     </row>
-    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -17534,8 +17591,11 @@
       <c r="JI27" s="11">
         <v>500</v>
       </c>
+      <c r="JJ27" s="11">
+        <v>520</v>
+      </c>
     </row>
-    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -18341,8 +18401,11 @@
       <c r="JI28" s="11">
         <v>150</v>
       </c>
+      <c r="JJ28" s="11">
+        <v>150</v>
+      </c>
     </row>
-    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -19148,8 +19211,11 @@
       <c r="JI29" s="11">
         <v>270</v>
       </c>
+      <c r="JJ29" s="11">
+        <v>250</v>
+      </c>
     </row>
-    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -19955,8 +20021,11 @@
       <c r="JI30" s="11">
         <v>890</v>
       </c>
+      <c r="JJ30" s="11">
+        <v>920</v>
+      </c>
     </row>
-    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -20762,8 +20831,11 @@
       <c r="JI31" s="11">
         <v>760</v>
       </c>
+      <c r="JJ31" s="11">
+        <v>780</v>
+      </c>
     </row>
-    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -21569,8 +21641,11 @@
       <c r="JI32" s="11">
         <v>2140</v>
       </c>
+      <c r="JJ32" s="11">
+        <v>2150</v>
+      </c>
     </row>
-    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -22376,8 +22451,11 @@
       <c r="JI33" s="11">
         <v>180</v>
       </c>
+      <c r="JJ33" s="11">
+        <v>180</v>
+      </c>
     </row>
-    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -23183,8 +23261,11 @@
       <c r="JI34" s="11">
         <v>1960</v>
       </c>
+      <c r="JJ34" s="11">
+        <v>1970</v>
+      </c>
     </row>
-    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -23990,8 +24071,11 @@
       <c r="JI35" s="11">
         <v>70</v>
       </c>
+      <c r="JJ35" s="11">
+        <v>70</v>
+      </c>
     </row>
-    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -24797,8 +24881,11 @@
       <c r="JI36" s="11">
         <v>1890</v>
       </c>
+      <c r="JJ36" s="11">
+        <v>1910</v>
+      </c>
     </row>
-    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>95</v>
       </c>
@@ -24811,7 +24898,7 @@
       <c r="H38" s="17"/>
       <c r="I38" s="16"/>
     </row>
-    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>15</v>
       </c>
@@ -24824,7 +24911,7 @@
       <c r="H39" s="14"/>
       <c r="I39" s="18"/>
     </row>
-    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>96</v>
       </c>
@@ -24837,7 +24924,7 @@
       <c r="H40" s="14"/>
       <c r="I40" s="18"/>
     </row>
-    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>97</v>
       </c>
@@ -24850,7 +24937,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>98</v>
       </c>
@@ -24863,7 +24950,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="18"/>
     </row>
-    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>99</v>
       </c>
@@ -24876,7 +24963,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="18"/>
     </row>
-    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>100</v>
       </c>
@@ -24889,7 +24976,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
         <v>101</v>
       </c>

--- a/lowe/edd/data/GLENNHWS.xlsx
+++ b/lowe/edd/data/GLENNHWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1328,7 +1328,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ45"/>
+  <dimension ref="A1:JL45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1345,12 +1345,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44519.49428240741</v>
+        <v>44582.472731481481</v>
       </c>
     </row>
-    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1360,14 +1360,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1375,12 +1375,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1393,7 +1393,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2201,11 +2201,17 @@
       <c r="JI8" s="8">
         <v>44440</v>
       </c>
-      <c r="JJ8" s="9">
+      <c r="JJ8" s="8">
         <v>44470</v>
       </c>
+      <c r="JK8" s="8">
+        <v>44501</v>
+      </c>
+      <c r="JL8" s="9">
+        <v>44531</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3012,10 +3018,16 @@
         <v>12860</v>
       </c>
       <c r="JJ9" s="11">
-        <v>12930</v>
+        <v>12920</v>
+      </c>
+      <c r="JK9" s="11">
+        <v>12510</v>
+      </c>
+      <c r="JL9" s="11">
+        <v>12590</v>
       </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3822,10 +3834,16 @@
         <v>12140</v>
       </c>
       <c r="JJ10" s="11">
-        <v>12230</v>
+        <v>12220</v>
+      </c>
+      <c r="JK10" s="11">
+        <v>11870</v>
+      </c>
+      <c r="JL10" s="11">
+        <v>11940</v>
       </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4634,8 +4652,14 @@
       <c r="JJ11" s="11">
         <v>700</v>
       </c>
+      <c r="JK11" s="11">
+        <v>640</v>
+      </c>
+      <c r="JL11" s="11">
+        <v>650</v>
+      </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5444,8 +5468,14 @@
       <c r="JJ12" s="12">
         <v>5.3999999999999999E-2</v>
       </c>
+      <c r="JK12" s="12">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="JL12" s="12">
+        <v>5.1999999999999998E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6254,8 +6284,14 @@
       <c r="JJ13" s="11">
         <v>9850</v>
       </c>
+      <c r="JK13" s="11">
+        <v>9350</v>
+      </c>
+      <c r="JL13" s="11">
+        <v>9390</v>
+      </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7064,8 +7100,14 @@
       <c r="JJ14" s="11">
         <v>2470</v>
       </c>
+      <c r="JK14" s="11">
+        <v>2110</v>
+      </c>
+      <c r="JL14" s="11">
+        <v>2060</v>
+      </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7874,8 +7916,14 @@
       <c r="JJ15" s="11">
         <v>7380</v>
       </c>
+      <c r="JK15" s="11">
+        <v>7240</v>
+      </c>
+      <c r="JL15" s="11">
+        <v>7330</v>
+      </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8684,8 +8732,14 @@
       <c r="JJ16" s="11">
         <v>5230</v>
       </c>
+      <c r="JK16" s="11">
+        <v>5110</v>
+      </c>
+      <c r="JL16" s="11">
+        <v>5230</v>
+      </c>
     </row>
-    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9494,8 +9548,14 @@
       <c r="JJ17" s="11">
         <v>1220</v>
       </c>
+      <c r="JK17" s="11">
+        <v>1180</v>
+      </c>
+      <c r="JL17" s="11">
+        <v>1160</v>
+      </c>
     </row>
-    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10304,8 +10364,14 @@
       <c r="JJ18" s="11">
         <v>370</v>
       </c>
+      <c r="JK18" s="11">
+        <v>350</v>
+      </c>
+      <c r="JL18" s="11">
+        <v>350</v>
+      </c>
     </row>
-    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -11114,8 +11180,14 @@
       <c r="JJ19" s="11">
         <v>860</v>
       </c>
+      <c r="JK19" s="11">
+        <v>840</v>
+      </c>
+      <c r="JL19" s="11">
+        <v>820</v>
+      </c>
     </row>
-    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -11924,8 +11996,14 @@
       <c r="JJ20" s="11">
         <v>550</v>
       </c>
+      <c r="JK20" s="11">
+        <v>540</v>
+      </c>
+      <c r="JL20" s="11">
+        <v>540</v>
+      </c>
     </row>
-    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -12734,8 +12812,14 @@
       <c r="JJ21" s="11">
         <v>310</v>
       </c>
+      <c r="JK21" s="11">
+        <v>300</v>
+      </c>
+      <c r="JL21" s="11">
+        <v>280</v>
+      </c>
     </row>
-    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -13544,8 +13628,14 @@
       <c r="JJ22" s="11">
         <v>6160</v>
       </c>
+      <c r="JK22" s="11">
+        <v>6060</v>
+      </c>
+      <c r="JL22" s="11">
+        <v>6170</v>
+      </c>
     </row>
-    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -14354,8 +14444,14 @@
       <c r="JJ23" s="11">
         <v>4010</v>
       </c>
+      <c r="JK23" s="11">
+        <v>3930</v>
+      </c>
+      <c r="JL23" s="11">
+        <v>4070</v>
+      </c>
     </row>
-    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -15164,8 +15260,14 @@
       <c r="JJ24" s="11">
         <v>1800</v>
       </c>
+      <c r="JK24" s="11">
+        <v>1740</v>
+      </c>
+      <c r="JL24" s="11">
+        <v>1790</v>
+      </c>
     </row>
-    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -15974,8 +16076,14 @@
       <c r="JJ25" s="11">
         <v>310</v>
       </c>
+      <c r="JK25" s="11">
+        <v>270</v>
+      </c>
+      <c r="JL25" s="11">
+        <v>300</v>
+      </c>
     </row>
-    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -16784,8 +16892,14 @@
       <c r="JJ26" s="11">
         <v>970</v>
       </c>
+      <c r="JK26" s="11">
+        <v>990</v>
+      </c>
+      <c r="JL26" s="11">
+        <v>990</v>
+      </c>
     </row>
-    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -17594,8 +17708,14 @@
       <c r="JJ27" s="11">
         <v>520</v>
       </c>
+      <c r="JK27" s="11">
+        <v>480</v>
+      </c>
+      <c r="JL27" s="11">
+        <v>500</v>
+      </c>
     </row>
-    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -18404,8 +18524,14 @@
       <c r="JJ28" s="11">
         <v>150</v>
       </c>
+      <c r="JK28" s="11">
+        <v>150</v>
+      </c>
+      <c r="JL28" s="11">
+        <v>160</v>
+      </c>
     </row>
-    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -19214,8 +19340,14 @@
       <c r="JJ29" s="11">
         <v>250</v>
       </c>
+      <c r="JK29" s="11">
+        <v>240</v>
+      </c>
+      <c r="JL29" s="11">
+        <v>240</v>
+      </c>
     </row>
-    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -20024,8 +20156,14 @@
       <c r="JJ30" s="11">
         <v>920</v>
       </c>
+      <c r="JK30" s="11">
+        <v>910</v>
+      </c>
+      <c r="JL30" s="11">
+        <v>960</v>
+      </c>
     </row>
-    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -20834,8 +20972,14 @@
       <c r="JJ31" s="11">
         <v>780</v>
       </c>
+      <c r="JK31" s="11">
+        <v>770</v>
+      </c>
+      <c r="JL31" s="11">
+        <v>800</v>
+      </c>
     </row>
-    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -21644,8 +21788,14 @@
       <c r="JJ32" s="11">
         <v>2150</v>
       </c>
+      <c r="JK32" s="11">
+        <v>2130</v>
+      </c>
+      <c r="JL32" s="11">
+        <v>2100</v>
+      </c>
     </row>
-    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -22454,8 +22604,14 @@
       <c r="JJ33" s="11">
         <v>180</v>
       </c>
+      <c r="JK33" s="11">
+        <v>180</v>
+      </c>
+      <c r="JL33" s="11">
+        <v>180</v>
+      </c>
     </row>
-    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -23264,8 +23420,14 @@
       <c r="JJ34" s="11">
         <v>1970</v>
       </c>
+      <c r="JK34" s="11">
+        <v>1950</v>
+      </c>
+      <c r="JL34" s="11">
+        <v>1920</v>
+      </c>
     </row>
-    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -24074,8 +24236,14 @@
       <c r="JJ35" s="11">
         <v>70</v>
       </c>
+      <c r="JK35" s="11">
+        <v>60</v>
+      </c>
+      <c r="JL35" s="11">
+        <v>60</v>
+      </c>
     </row>
-    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -24884,8 +25052,14 @@
       <c r="JJ36" s="11">
         <v>1910</v>
       </c>
+      <c r="JK36" s="11">
+        <v>1890</v>
+      </c>
+      <c r="JL36" s="11">
+        <v>1860</v>
+      </c>
     </row>
-    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>95</v>
       </c>
@@ -24898,7 +25072,7 @@
       <c r="H38" s="17"/>
       <c r="I38" s="16"/>
     </row>
-    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>15</v>
       </c>
@@ -24911,7 +25085,7 @@
       <c r="H39" s="14"/>
       <c r="I39" s="18"/>
     </row>
-    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>96</v>
       </c>
@@ -24924,7 +25098,7 @@
       <c r="H40" s="14"/>
       <c r="I40" s="18"/>
     </row>
-    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>97</v>
       </c>
@@ -24937,7 +25111,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>98</v>
       </c>
@@ -24950,7 +25124,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="18"/>
     </row>
-    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>99</v>
       </c>
@@ -24963,7 +25137,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="18"/>
     </row>
-    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>100</v>
       </c>
@@ -24976,7 +25150,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
         <v>101</v>
       </c>
